--- a/ResultadoEleicoesDistritos/VILA REAL_MONTALEGRE.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_MONTALEGRE.xlsx
@@ -600,61 +600,61 @@
         <v>139</v>
       </c>
       <c r="I2" t="n">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="J2" t="n">
-        <v>1650</v>
+        <v>1624</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M2" t="n">
         <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="S2" t="n">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="T2" t="n">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="V2" t="n">
-        <v>2534</v>
+        <v>2486</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2590</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4</v>
       </c>
-      <c r="X2" t="n">
-        <v>2492</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
       <c r="Z2" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
